--- a/annotation/annotation.xlsx
+++ b/annotation/annotation.xlsx
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
         <v>59</v>

--- a/annotation/annotation.xlsx
+++ b/annotation/annotation.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>file_name</t>
   </si>
@@ -22,19 +25,16 @@
     <t>patient_name</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>year_age</t>
+  </si>
+  <si>
+    <t>month_age</t>
+  </si>
+  <si>
+    <t>day_age</t>
   </si>
   <si>
     <t>review_flag</t>
@@ -139,76 +139,16 @@
     <t>F03刘欣雨20130519.bmp</t>
   </si>
   <si>
-    <t>F08黄思瑗20081106.bmp</t>
-  </si>
-  <si>
-    <t>20200818134117.bmp</t>
-  </si>
-  <si>
-    <t>M07测试20200818.bmp</t>
-  </si>
-  <si>
     <t>刘欣雨</t>
   </si>
   <si>
-    <t>黄思瑗</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
 </sst>
 </file>
@@ -566,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -695,485 +635,125 @@
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AA2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AC2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AF2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AH2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AL2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AN2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" t="s">
-        <v>60</v>
-      </c>
-      <c r="U5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
